--- a/日程行程工作规划-2021年6月2日.xlsx
+++ b/日程行程工作规划-2021年6月2日.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YU Yixiong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C7A92F-B7BB-4F99-9EB1-E575CDC6435B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464ABC00-DA54-4F54-B5AC-3C96F17F9D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7AB39B35-62EB-4918-81A8-50C5692919A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,74 @@
   </si>
   <si>
     <t>海上应急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做计划，解决小任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臀腿训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式识别深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式识别非监督学习聚类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式识别特征提取与分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打篮球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理PR作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总结分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式识别目标检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式识别目标检测与GAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大四开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征提取与选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非线性判别函数/SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,63 +289,90 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,16 +463,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>65684</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>46634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -407,7 +502,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="381000" y="6524625"/>
+          <a:off x="8115300" y="5600700"/>
           <a:ext cx="7848600" cy="7095134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -727,117 +822,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BD8993-B83D-4F0D-AE8B-6DE453A6C5E7}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C1" s="16">
-        <v>44349</v>
-      </c>
-      <c r="D1" s="16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C1" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D1" s="2">
         <v>44350</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="2">
         <v>44351</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="2">
         <v>44352</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="2">
         <v>44353</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="2">
         <v>44354</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="2">
         <v>44355</v>
       </c>
-      <c r="K1" s="16">
+      <c r="J1" s="2">
         <v>44356</v>
       </c>
-      <c r="L1" s="16">
+      <c r="K1" s="2">
         <v>44357</v>
       </c>
-      <c r="M1" s="16">
+      <c r="L1" s="2">
         <v>44358</v>
       </c>
-      <c r="N1" s="16">
+      <c r="M1" s="2">
         <v>44359</v>
       </c>
-      <c r="O1" s="16">
+      <c r="N1" s="2">
         <v>44360</v>
       </c>
-      <c r="P1" s="16">
+      <c r="O1" s="2">
         <v>44361</v>
       </c>
-      <c r="Q1" s="16">
+      <c r="P1" s="2">
         <v>44362</v>
       </c>
-      <c r="R1" s="16">
+      <c r="Q1" s="2">
         <v>44363</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>0.33333333333333331</v>
       </c>
@@ -845,24 +941,36 @@
         <v>0.375</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0.375</v>
       </c>
@@ -870,12 +978,13 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -883,9 +992,8 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>0.41666666666666702</v>
       </c>
@@ -893,12 +1001,13 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -906,9 +1015,8 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>0.45833333333333298</v>
       </c>
@@ -916,12 +1024,13 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -929,9 +1038,8 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>0.5</v>
       </c>
@@ -945,6 +1053,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -952,24 +1061,32 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>0.54166666666666596</v>
       </c>
       <c r="B8" s="7">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="13" t="s">
-        <v>8</v>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -977,22 +1094,22 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>0.58333333333333304</v>
       </c>
       <c r="B9" s="7">
         <v>0.625</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1000,22 +1117,24 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>0.625</v>
       </c>
       <c r="B10" s="7">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1023,22 +1142,26 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>0.66666666666666596</v>
       </c>
       <c r="B11" s="7">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1046,24 +1169,24 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>0.70833333333333304</v>
       </c>
       <c r="B12" s="7">
         <v>0.75</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1071,22 +1194,24 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>0.75</v>
       </c>
       <c r="B13" s="6">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1094,22 +1219,26 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>0.79166666666666696</v>
       </c>
       <c r="B14" s="9">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="19"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1117,22 +1246,24 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>0.83333333333333304</v>
       </c>
       <c r="B15" s="9">
         <v>0.875</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1140,22 +1271,28 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>0.875</v>
       </c>
       <c r="B16" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -1163,22 +1300,22 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>0.91666666666666696</v>
       </c>
       <c r="B17" s="9">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -1186,53 +1323,196 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K18" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E20" s="17" t="s">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H23" s="18" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E29"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C26" s="5"/>
+      <c r="D26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C28" s="5"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="20"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="19"/>
+      <c r="D37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="14"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H23:Q23"/>
+  <mergeCells count="27">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="H8:H14"/>
-    <mergeCell ref="E20:R20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F23:N23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
